--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col18a1-Kdr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col18a1-Kdr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Kdr</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.54004205872674</v>
+        <v>21.16991533333333</v>
       </c>
       <c r="H2">
-        <v>7.54004205872674</v>
+        <v>63.50974599999999</v>
       </c>
       <c r="I2">
-        <v>0.166485317531152</v>
+        <v>0.3077700633440185</v>
       </c>
       <c r="J2">
-        <v>0.166485317531152</v>
+        <v>0.3697009773073652</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>148.067422587639</v>
+        <v>153.3847273333333</v>
       </c>
       <c r="N2">
-        <v>148.067422587639</v>
+        <v>460.154182</v>
       </c>
       <c r="O2">
-        <v>0.9612238938119871</v>
+        <v>0.9432535557163702</v>
       </c>
       <c r="P2">
-        <v>0.9612238938119871</v>
+        <v>0.9461442014370421</v>
       </c>
       <c r="Q2">
-        <v>1116.434593838064</v>
+        <v>3247.141691073085</v>
       </c>
       <c r="R2">
-        <v>1116.434593838064</v>
+        <v>29224.27521965777</v>
       </c>
       <c r="S2">
-        <v>0.160029665179819</v>
+        <v>0.2903052065922979</v>
       </c>
       <c r="T2">
-        <v>0.160029665179819</v>
+        <v>0.3497904359449711</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.54004205872674</v>
+        <v>21.16991533333333</v>
       </c>
       <c r="H3">
-        <v>7.54004205872674</v>
+        <v>63.50974599999999</v>
       </c>
       <c r="I3">
-        <v>0.166485317531152</v>
+        <v>0.3077700633440185</v>
       </c>
       <c r="J3">
-        <v>0.166485317531152</v>
+        <v>0.3697009773073652</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>2.99674646997622</v>
+        <v>0.06306133333333333</v>
       </c>
       <c r="N3">
-        <v>2.99674646997622</v>
+        <v>0.189184</v>
       </c>
       <c r="O3">
-        <v>0.01945427468309524</v>
+        <v>0.0003878014971178633</v>
       </c>
       <c r="P3">
-        <v>0.01945427468309524</v>
+        <v>0.0003889899333885992</v>
       </c>
       <c r="Q3">
-        <v>22.59559442296159</v>
+        <v>1.335003087473778</v>
       </c>
       <c r="R3">
-        <v>22.59559442296159</v>
+        <v>12.015027787264</v>
       </c>
       <c r="S3">
-        <v>0.003238851097953362</v>
+        <v>0.00011935369133287</v>
       </c>
       <c r="T3">
-        <v>0.003238851097953362</v>
+        <v>0.000143809958536492</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.54004205872674</v>
+        <v>21.16991533333333</v>
       </c>
       <c r="H4">
-        <v>7.54004205872674</v>
+        <v>63.50974599999999</v>
       </c>
       <c r="I4">
-        <v>0.166485317531152</v>
+        <v>0.3077700633440185</v>
       </c>
       <c r="J4">
-        <v>0.166485317531152</v>
+        <v>0.3697009773073652</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.91615214872979</v>
+        <v>5.722979333333332</v>
       </c>
       <c r="N4">
-        <v>1.91615214872979</v>
+        <v>17.168938</v>
       </c>
       <c r="O4">
-        <v>0.01243927392906491</v>
+        <v>0.0351939902968738</v>
       </c>
       <c r="P4">
-        <v>0.01243927392906491</v>
+        <v>0.03530184396657746</v>
       </c>
       <c r="Q4">
-        <v>14.44786779234223</v>
+        <v>121.1549879410831</v>
       </c>
       <c r="R4">
-        <v>14.44786779234223</v>
+        <v>1090.394891469748</v>
       </c>
       <c r="S4">
-        <v>0.002070956469937352</v>
+        <v>0.01083165662299762</v>
       </c>
       <c r="T4">
-        <v>0.002070956469937352</v>
+        <v>0.0130511262151958</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.54004205872674</v>
+        <v>21.16991533333333</v>
       </c>
       <c r="H5">
-        <v>7.54004205872674</v>
+        <v>63.50974599999999</v>
       </c>
       <c r="I5">
-        <v>0.166485317531152</v>
+        <v>0.3077700633440185</v>
       </c>
       <c r="J5">
-        <v>0.166485317531152</v>
+        <v>0.3697009773073652</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.06019270601575</v>
+        <v>1.951202</v>
       </c>
       <c r="N5">
-        <v>1.06019270601575</v>
+        <v>5.853605999999999</v>
       </c>
       <c r="O5">
-        <v>0.006882557575852624</v>
+        <v>0.01199909701844822</v>
       </c>
       <c r="P5">
-        <v>0.006882557575852624</v>
+        <v>0.0120358688262385</v>
       </c>
       <c r="Q5">
-        <v>7.993897593714069</v>
+        <v>41.30678113823065</v>
       </c>
       <c r="R5">
-        <v>7.993897593714069</v>
+        <v>371.7610302440759</v>
       </c>
       <c r="S5">
-        <v>0.00114584478344226</v>
+        <v>0.00369296284943883</v>
       </c>
       <c r="T5">
-        <v>0.00114584478344226</v>
+        <v>0.004449672467803625</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.9612231525266</v>
+        <v>21.16991533333333</v>
       </c>
       <c r="H6">
-        <v>11.9612231525266</v>
+        <v>63.50974599999999</v>
       </c>
       <c r="I6">
-        <v>0.264105693191005</v>
+        <v>0.3077700633440185</v>
       </c>
       <c r="J6">
-        <v>0.264105693191005</v>
+        <v>0.3697009773073652</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>148.067422587639</v>
+        <v>1.490433</v>
       </c>
       <c r="N6">
-        <v>148.067422587639</v>
+        <v>2.980866</v>
       </c>
       <c r="O6">
-        <v>0.9612238938119871</v>
+        <v>0.009165555471189982</v>
       </c>
       <c r="P6">
-        <v>0.9612238938119871</v>
+        <v>0.006129095836753322</v>
       </c>
       <c r="Q6">
-        <v>1771.067483190207</v>
+        <v>31.552340420006</v>
       </c>
       <c r="R6">
-        <v>1771.067483190207</v>
+        <v>189.314042520036</v>
       </c>
       <c r="S6">
-        <v>0.2538647027869718</v>
+        <v>0.002820883587951256</v>
       </c>
       <c r="T6">
-        <v>0.2538647027869718</v>
+        <v>0.002265932720858206</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.9612231525266</v>
+        <v>12.96368733333333</v>
       </c>
       <c r="H7">
-        <v>11.9612231525266</v>
+        <v>38.891062</v>
       </c>
       <c r="I7">
-        <v>0.264105693191005</v>
+        <v>0.1884672096666258</v>
       </c>
       <c r="J7">
-        <v>0.264105693191005</v>
+        <v>0.2263914522650009</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.99674646997622</v>
+        <v>153.3847273333333</v>
       </c>
       <c r="N7">
-        <v>2.99674646997622</v>
+        <v>460.154182</v>
       </c>
       <c r="O7">
-        <v>0.01945427468309524</v>
+        <v>0.9432535557163702</v>
       </c>
       <c r="P7">
-        <v>0.01945427468309524</v>
+        <v>0.9461442014370421</v>
       </c>
       <c r="Q7">
-        <v>35.84475325893192</v>
+        <v>1988.43164685792</v>
       </c>
       <c r="R7">
-        <v>35.84475325893192</v>
+        <v>17895.88482172128</v>
       </c>
       <c r="S7">
-        <v>0.005137984700707087</v>
+        <v>0.1777723656539874</v>
       </c>
       <c r="T7">
-        <v>0.005137984700707087</v>
+        <v>0.2141989598154415</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.9612231525266</v>
+        <v>12.96368733333333</v>
       </c>
       <c r="H8">
-        <v>11.9612231525266</v>
+        <v>38.891062</v>
       </c>
       <c r="I8">
-        <v>0.264105693191005</v>
+        <v>0.1884672096666258</v>
       </c>
       <c r="J8">
-        <v>0.264105693191005</v>
+        <v>0.2263914522650009</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.91615214872979</v>
+        <v>0.06306133333333333</v>
       </c>
       <c r="N8">
-        <v>1.91615214872979</v>
+        <v>0.189184</v>
       </c>
       <c r="O8">
-        <v>0.01243927392906491</v>
+        <v>0.0003878014971178633</v>
       </c>
       <c r="P8">
-        <v>0.01243927392906491</v>
+        <v>0.0003889899333885992</v>
       </c>
       <c r="Q8">
-        <v>22.91952344515035</v>
+        <v>0.8175074081564444</v>
       </c>
       <c r="R8">
-        <v>22.91952344515035</v>
+        <v>7.357566673407999</v>
       </c>
       <c r="S8">
-        <v>0.003285283063828484</v>
+        <v>7.308786606634374E-05</v>
       </c>
       <c r="T8">
-        <v>0.003285283063828484</v>
+        <v>8.806399593631095E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.9612231525266</v>
+        <v>12.96368733333333</v>
       </c>
       <c r="H9">
-        <v>11.9612231525266</v>
+        <v>38.891062</v>
       </c>
       <c r="I9">
-        <v>0.264105693191005</v>
+        <v>0.1884672096666258</v>
       </c>
       <c r="J9">
-        <v>0.264105693191005</v>
+        <v>0.2263914522650009</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.06019270601575</v>
+        <v>5.722979333333332</v>
       </c>
       <c r="N9">
-        <v>1.06019270601575</v>
+        <v>17.168938</v>
       </c>
       <c r="O9">
-        <v>0.006882557575852624</v>
+        <v>0.0351939902968738</v>
       </c>
       <c r="P9">
-        <v>0.006882557575852624</v>
+        <v>0.03530184396657746</v>
       </c>
       <c r="Q9">
-        <v>12.68120154133542</v>
+        <v>74.19091469246176</v>
       </c>
       <c r="R9">
-        <v>12.68120154133542</v>
+        <v>667.7182322321559</v>
       </c>
       <c r="S9">
-        <v>0.00181772263949756</v>
+        <v>0.006632913148286108</v>
       </c>
       <c r="T9">
-        <v>0.00181772263949756</v>
+        <v>0.007992035723225932</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.7882664455901</v>
+        <v>12.96368733333333</v>
       </c>
       <c r="H10">
-        <v>25.7882664455901</v>
+        <v>38.891062</v>
       </c>
       <c r="I10">
-        <v>0.5694089892778431</v>
+        <v>0.1884672096666258</v>
       </c>
       <c r="J10">
-        <v>0.5694089892778431</v>
+        <v>0.2263914522650009</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>148.067422587639</v>
+        <v>1.951202</v>
       </c>
       <c r="N10">
-        <v>148.067422587639</v>
+        <v>5.853605999999999</v>
       </c>
       <c r="O10">
-        <v>0.9612238938119871</v>
+        <v>0.01199909701844822</v>
       </c>
       <c r="P10">
-        <v>0.9612238938119871</v>
+        <v>0.0120358688262385</v>
       </c>
       <c r="Q10">
-        <v>3818.40214560182</v>
+        <v>25.29477265217466</v>
       </c>
       <c r="R10">
-        <v>3818.40214560182</v>
+        <v>227.6529538695719</v>
       </c>
       <c r="S10">
-        <v>0.5473295258451963</v>
+        <v>0.002261436333586065</v>
       </c>
       <c r="T10">
-        <v>0.5473295258451963</v>
+        <v>0.002724817822843186</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.7882664455901</v>
+        <v>12.96368733333333</v>
       </c>
       <c r="H11">
-        <v>25.7882664455901</v>
+        <v>38.891062</v>
       </c>
       <c r="I11">
-        <v>0.5694089892778431</v>
+        <v>0.1884672096666258</v>
       </c>
       <c r="J11">
-        <v>0.5694089892778431</v>
+        <v>0.2263914522650009</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.99674646997622</v>
+        <v>1.490433</v>
       </c>
       <c r="N11">
-        <v>2.99674646997622</v>
+        <v>2.980866</v>
       </c>
       <c r="O11">
-        <v>0.01945427468309524</v>
+        <v>0.009165555471189982</v>
       </c>
       <c r="P11">
-        <v>0.01945427468309524</v>
+        <v>0.006129095836753322</v>
       </c>
       <c r="Q11">
-        <v>77.28089643762834</v>
+        <v>19.321507403282</v>
       </c>
       <c r="R11">
-        <v>77.28089643762834</v>
+        <v>115.929044419692</v>
       </c>
       <c r="S11">
-        <v>0.01107743888443479</v>
+        <v>0.001727406664699851</v>
       </c>
       <c r="T11">
-        <v>0.01107743888443479</v>
+        <v>0.001387574907553956</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>25.7882664455901</v>
+        <v>0.05547</v>
       </c>
       <c r="H12">
-        <v>25.7882664455901</v>
+        <v>0.16641</v>
       </c>
       <c r="I12">
-        <v>0.5694089892778431</v>
+        <v>0.0008064276660951866</v>
       </c>
       <c r="J12">
-        <v>0.5694089892778431</v>
+        <v>0.0009687007665519344</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.91615214872979</v>
+        <v>153.3847273333333</v>
       </c>
       <c r="N12">
-        <v>1.91615214872979</v>
+        <v>460.154182</v>
       </c>
       <c r="O12">
-        <v>0.01243927392906491</v>
+        <v>0.9432535557163702</v>
       </c>
       <c r="P12">
-        <v>0.01243927392906491</v>
+        <v>0.9461442014370421</v>
       </c>
       <c r="Q12">
-        <v>49.41424216173381</v>
+        <v>8.508250825179999</v>
       </c>
       <c r="R12">
-        <v>49.41424216173381</v>
+        <v>76.57425742661999</v>
       </c>
       <c r="S12">
-        <v>0.007083034395299075</v>
+        <v>0.0007606657634723384</v>
       </c>
       <c r="T12">
-        <v>0.007083034395299075</v>
+        <v>0.0009165306132007306</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.05547</v>
+      </c>
+      <c r="H13">
+        <v>0.16641</v>
+      </c>
+      <c r="I13">
+        <v>0.0008064276660951866</v>
+      </c>
+      <c r="J13">
+        <v>0.0009687007665519344</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.06306133333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.189184</v>
+      </c>
+      <c r="O13">
+        <v>0.0003878014971178633</v>
+      </c>
+      <c r="P13">
+        <v>0.0003889899333885992</v>
+      </c>
+      <c r="Q13">
+        <v>0.00349801216</v>
+      </c>
+      <c r="R13">
+        <v>0.03148210944</v>
+      </c>
+      <c r="S13">
+        <v>3.127338562289778E-07</v>
+      </c>
+      <c r="T13">
+        <v>3.76814846654522E-07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.05547</v>
+      </c>
+      <c r="H14">
+        <v>0.16641</v>
+      </c>
+      <c r="I14">
+        <v>0.0008064276660951866</v>
+      </c>
+      <c r="J14">
+        <v>0.0009687007665519344</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5.722979333333332</v>
+      </c>
+      <c r="N14">
+        <v>17.168938</v>
+      </c>
+      <c r="O14">
+        <v>0.0351939902968738</v>
+      </c>
+      <c r="P14">
+        <v>0.03530184396657746</v>
+      </c>
+      <c r="Q14">
+        <v>0.3174536636199999</v>
+      </c>
+      <c r="R14">
+        <v>2.85708297258</v>
+      </c>
+      <c r="S14">
+        <v>2.838140745568458E-05</v>
+      </c>
+      <c r="T14">
+        <v>3.419692331112037E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.05547</v>
+      </c>
+      <c r="H15">
+        <v>0.16641</v>
+      </c>
+      <c r="I15">
+        <v>0.0008064276660951866</v>
+      </c>
+      <c r="J15">
+        <v>0.0009687007665519344</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.951202</v>
+      </c>
+      <c r="N15">
+        <v>5.853605999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.01199909701844822</v>
+      </c>
+      <c r="P15">
+        <v>0.0120358688262385</v>
+      </c>
+      <c r="Q15">
+        <v>0.10823317494</v>
+      </c>
+      <c r="R15">
+        <v>0.9740985744599999</v>
+      </c>
+      <c r="S15">
+        <v>9.676403803836906E-06</v>
+      </c>
+      <c r="T15">
+        <v>1.165915535809577E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.05547</v>
+      </c>
+      <c r="H16">
+        <v>0.16641</v>
+      </c>
+      <c r="I16">
+        <v>0.0008064276660951866</v>
+      </c>
+      <c r="J16">
+        <v>0.0009687007665519344</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.490433</v>
+      </c>
+      <c r="N16">
+        <v>2.980866</v>
+      </c>
+      <c r="O16">
+        <v>0.009165555471189982</v>
+      </c>
+      <c r="P16">
+        <v>0.006129095836753322</v>
+      </c>
+      <c r="Q16">
+        <v>0.08267431851000001</v>
+      </c>
+      <c r="R16">
+        <v>0.4960459110600001</v>
+      </c>
+      <c r="S16">
+        <v>7.391357507097705E-06</v>
+      </c>
+      <c r="T16">
+        <v>5.937259835333213E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.02803733333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.08411200000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.0004076091812427038</v>
+      </c>
+      <c r="J17">
+        <v>0.0004896301837402578</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>153.3847273333333</v>
+      </c>
+      <c r="N17">
+        <v>460.154182</v>
+      </c>
+      <c r="O17">
+        <v>0.9432535557163702</v>
+      </c>
+      <c r="P17">
+        <v>0.9461442014370421</v>
+      </c>
+      <c r="Q17">
+        <v>4.300498728487111</v>
+      </c>
+      <c r="R17">
+        <v>38.704488556384</v>
+      </c>
+      <c r="S17">
+        <v>0.0003844788095498187</v>
+      </c>
+      <c r="T17">
+        <v>0.0004632607591943984</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.02803733333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.08411200000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.0004076091812427038</v>
+      </c>
+      <c r="J18">
+        <v>0.0004896301837402578</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.06306133333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.189184</v>
+      </c>
+      <c r="O18">
+        <v>0.0003878014971178633</v>
+      </c>
+      <c r="P18">
+        <v>0.0003889899333885992</v>
+      </c>
+      <c r="Q18">
+        <v>0.001768071623111111</v>
+      </c>
+      <c r="R18">
+        <v>0.015912644608</v>
+      </c>
+      <c r="S18">
+        <v>1.58071450724907E-07</v>
+      </c>
+      <c r="T18">
+        <v>1.904612125581705E-07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>25.7882664455901</v>
-      </c>
-      <c r="H13">
-        <v>25.7882664455901</v>
-      </c>
-      <c r="I13">
-        <v>0.5694089892778431</v>
-      </c>
-      <c r="J13">
-        <v>0.5694089892778431</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.06019270601575</v>
-      </c>
-      <c r="N13">
-        <v>1.06019270601575</v>
-      </c>
-      <c r="O13">
-        <v>0.006882557575852624</v>
-      </c>
-      <c r="P13">
-        <v>0.006882557575852624</v>
-      </c>
-      <c r="Q13">
-        <v>27.34053198640534</v>
-      </c>
-      <c r="R13">
-        <v>27.34053198640534</v>
-      </c>
-      <c r="S13">
-        <v>0.003918990152912805</v>
-      </c>
-      <c r="T13">
-        <v>0.003918990152912805</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.02803733333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.08411200000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.0004076091812427038</v>
+      </c>
+      <c r="J19">
+        <v>0.0004896301837402578</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.722979333333332</v>
+      </c>
+      <c r="N19">
+        <v>17.168938</v>
+      </c>
+      <c r="O19">
+        <v>0.0351939902968738</v>
+      </c>
+      <c r="P19">
+        <v>0.03530184396657746</v>
+      </c>
+      <c r="Q19">
+        <v>0.1604570792284444</v>
+      </c>
+      <c r="R19">
+        <v>1.444113713056</v>
+      </c>
+      <c r="S19">
+        <v>1.434539356957239E-05</v>
+      </c>
+      <c r="T19">
+        <v>1.728484834772523E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.02803733333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.08411200000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.0004076091812427038</v>
+      </c>
+      <c r="J20">
+        <v>0.0004896301837402578</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.951202</v>
+      </c>
+      <c r="N20">
+        <v>5.853605999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.01199909701844822</v>
+      </c>
+      <c r="P20">
+        <v>0.0120358688262385</v>
+      </c>
+      <c r="Q20">
+        <v>0.05470650087466666</v>
+      </c>
+      <c r="R20">
+        <v>0.492358507872</v>
+      </c>
+      <c r="S20">
+        <v>4.890942111341446E-06</v>
+      </c>
+      <c r="T20">
+        <v>5.893124664864799E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.02803733333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.08411200000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.0004076091812427038</v>
+      </c>
+      <c r="J21">
+        <v>0.0004896301837402578</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.490433</v>
+      </c>
+      <c r="N21">
+        <v>2.980866</v>
+      </c>
+      <c r="O21">
+        <v>0.009165555471189982</v>
+      </c>
+      <c r="P21">
+        <v>0.006129095836753322</v>
+      </c>
+      <c r="Q21">
+        <v>0.04178776683200001</v>
+      </c>
+      <c r="R21">
+        <v>0.2507266009920001</v>
+      </c>
+      <c r="S21">
+        <v>3.735964561246333E-06</v>
+      </c>
+      <c r="T21">
+        <v>3.000990320711178E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>34.5677325</v>
+      </c>
+      <c r="H22">
+        <v>69.135465</v>
+      </c>
+      <c r="I22">
+        <v>0.5025486901420179</v>
+      </c>
+      <c r="J22">
+        <v>0.4024492394773417</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>153.3847273333333</v>
+      </c>
+      <c r="N22">
+        <v>460.154182</v>
+      </c>
+      <c r="O22">
+        <v>0.9432535557163702</v>
+      </c>
+      <c r="P22">
+        <v>0.9461442014370421</v>
+      </c>
+      <c r="Q22">
+        <v>5302.162224044105</v>
+      </c>
+      <c r="R22">
+        <v>31812.97334426463</v>
+      </c>
+      <c r="S22">
+        <v>0.4740308388970627</v>
+      </c>
+      <c r="T22">
+        <v>0.3807750143042344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>34.5677325</v>
+      </c>
+      <c r="H23">
+        <v>69.135465</v>
+      </c>
+      <c r="I23">
+        <v>0.5025486901420179</v>
+      </c>
+      <c r="J23">
+        <v>0.4024492394773417</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.06306133333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.189184</v>
+      </c>
+      <c r="O23">
+        <v>0.0003878014971178633</v>
+      </c>
+      <c r="P23">
+        <v>0.0003889899333885992</v>
+      </c>
+      <c r="Q23">
+        <v>2.17988730176</v>
+      </c>
+      <c r="R23">
+        <v>13.07932381056</v>
+      </c>
+      <c r="S23">
+        <v>0.0001948891344116957</v>
+      </c>
+      <c r="T23">
+        <v>0.0001565487028565836</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>34.5677325</v>
+      </c>
+      <c r="H24">
+        <v>69.135465</v>
+      </c>
+      <c r="I24">
+        <v>0.5025486901420179</v>
+      </c>
+      <c r="J24">
+        <v>0.4024492394773417</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>5.722979333333332</v>
+      </c>
+      <c r="N24">
+        <v>17.168938</v>
+      </c>
+      <c r="O24">
+        <v>0.0351939902968738</v>
+      </c>
+      <c r="P24">
+        <v>0.03530184396657746</v>
+      </c>
+      <c r="Q24">
+        <v>197.8304186976949</v>
+      </c>
+      <c r="R24">
+        <v>1186.98251218617</v>
+      </c>
+      <c r="S24">
+        <v>0.01768669372456481</v>
+      </c>
+      <c r="T24">
+        <v>0.01420720025649688</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>34.5677325</v>
+      </c>
+      <c r="H25">
+        <v>69.135465</v>
+      </c>
+      <c r="I25">
+        <v>0.5025486901420179</v>
+      </c>
+      <c r="J25">
+        <v>0.4024492394773417</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.951202</v>
+      </c>
+      <c r="N25">
+        <v>5.853605999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.01199909701844822</v>
+      </c>
+      <c r="P25">
+        <v>0.0120358688262385</v>
+      </c>
+      <c r="Q25">
+        <v>67.44862878946499</v>
+      </c>
+      <c r="R25">
+        <v>404.6917727367899</v>
+      </c>
+      <c r="S25">
+        <v>0.006030130489508142</v>
+      </c>
+      <c r="T25">
+        <v>0.00484382625556873</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>34.5677325</v>
+      </c>
+      <c r="H26">
+        <v>69.135465</v>
+      </c>
+      <c r="I26">
+        <v>0.5025486901420179</v>
+      </c>
+      <c r="J26">
+        <v>0.4024492394773417</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.490433</v>
+      </c>
+      <c r="N26">
+        <v>2.980866</v>
+      </c>
+      <c r="O26">
+        <v>0.009165555471189982</v>
+      </c>
+      <c r="P26">
+        <v>0.006129095836753322</v>
+      </c>
+      <c r="Q26">
+        <v>51.5208892531725</v>
+      </c>
+      <c r="R26">
+        <v>206.08355701269</v>
+      </c>
+      <c r="S26">
+        <v>0.00460613789647053</v>
+      </c>
+      <c r="T26">
+        <v>0.002466649958185115</v>
       </c>
     </row>
   </sheetData>
